--- a/RUDN/Importance/Varible_f_reg_in_Caribbean.xlsx
+++ b/RUDN/Importance/Varible_f_reg_in_Caribbean.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="296">
   <si>
     <t>F-value</t>
   </si>
@@ -22,48 +22,96 @@
     <t>p-value</t>
   </si>
   <si>
+    <t>Survival to age 65, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
+  </si>
+  <si>
+    <t>Survival to age 65, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation (% of population)</t>
+  </si>
+  <si>
+    <t>Incidence of tuberculosis (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities (% of population with access)</t>
+  </si>
+  <si>
     <t>Number of infant deaths</t>
   </si>
   <si>
+    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
+  </si>
+  <si>
     <t>Children (0-14) living with HIV</t>
   </si>
   <si>
+    <t>Number of people who are undernourished</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Fertility rate, total (births per woman)</t>
+  </si>
+  <si>
+    <t>Birth rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
+  </si>
+  <si>
     <t>Children orphaned by HIV/AIDS</t>
   </si>
   <si>
-    <t>Number of people who are undernourished</t>
-  </si>
-  <si>
     <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
   </si>
   <si>
+    <t>Adults (ages 15+) newly infected with HIV</t>
+  </si>
+  <si>
     <t>Number of neonatal deaths</t>
   </si>
   <si>
     <t>Population ages 80 and older, male (% of male population)</t>
   </si>
   <si>
-    <t>Adults (ages 15+) newly infected with HIV</t>
-  </si>
-  <si>
     <t>Population ages 75-79, male (% of male population)</t>
   </si>
   <si>
+    <t>Population ages 65 and above, male (% of total)</t>
+  </si>
+  <si>
     <t>Number of under-five deaths</t>
   </si>
   <si>
     <t>Population ages 00-04, female (% of female population)</t>
   </si>
   <si>
+    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
+  </si>
+  <si>
     <t>Population ages 00-04, male (% of male population)</t>
   </si>
   <si>
-    <t>Population ages 65 and above, male (% of total)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
-  </si>
-  <si>
     <t>Adults (ages 15+) living with HIV</t>
   </si>
   <si>
@@ -76,118 +124,127 @@
     <t>Population ages 00-14, female (% of total)</t>
   </si>
   <si>
+    <t>Age dependency ratio, old</t>
+  </si>
+  <si>
     <t>Population ages 0-14 (% of total)</t>
   </si>
   <si>
     <t>Population ages 00-14 (% of total)</t>
   </si>
   <si>
+    <t>Age dependency ratio, young</t>
+  </si>
+  <si>
     <t>Population ages 05-09, female (% of female population)</t>
   </si>
   <si>
-    <t>Age dependency ratio, young</t>
+    <t>Population ages 65 and above, female (% of total)</t>
   </si>
   <si>
     <t>Population ages 00-14, male (% of total)</t>
   </si>
   <si>
-    <t>Age dependency ratio, old</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, female (% of total)</t>
+    <t>Population ages 70-74, male (% of male population)</t>
   </si>
   <si>
     <t>Population ages 05-09, male (% of male population)</t>
   </si>
   <si>
-    <t>Population ages 70-74, male (% of male population)</t>
+    <t>Population ages 70-74, female (% of female population)</t>
   </si>
   <si>
     <t>Population ages 80 and older, female (% of female population)</t>
   </si>
   <si>
-    <t>Population ages 70-74, female (% of female population)</t>
-  </si>
-  <si>
     <t>Population ages 75-79, female (% of female population)</t>
   </si>
   <si>
+    <t>Children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
     <t>Population ages 10-14, female (% of female population)</t>
   </si>
   <si>
-    <t>Children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
     <t>Urban population growth (annual %)</t>
   </si>
   <si>
     <t>Population ages 65-69, male (% of male population)</t>
   </si>
   <si>
+    <t>Status under enhanced HIPC initiative</t>
+  </si>
+  <si>
+    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
+  </si>
+  <si>
     <t>Population ages10-14, male (% of male population)</t>
   </si>
   <si>
     <t>Rural population</t>
   </si>
   <si>
+    <t>Reported cases of malaria</t>
+  </si>
+  <si>
+    <t>Malaria cases reported</t>
+  </si>
+  <si>
     <t>Population growth (annual %)</t>
   </si>
   <si>
+    <t>Number of maternal deaths</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, female (% of female population)</t>
+  </si>
+  <si>
     <t>Population ages 60-64, male (% of male population)</t>
   </si>
   <si>
-    <t>Population ages 65-69, female (% of female population)</t>
+    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
   </si>
   <si>
     <t>Population ages 15-19, female (% of female population)</t>
   </si>
   <si>
-    <t>Malaria cases reported</t>
-  </si>
-  <si>
-    <t>Reported cases of malaria</t>
-  </si>
-  <si>
     <t>Population ages 20-24, female (% of female population)</t>
   </si>
   <si>
+    <t>Population ages 15-19, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, male (% of male population)</t>
+  </si>
+  <si>
     <t>Population ages 60-64, female (% of female population)</t>
   </si>
   <si>
-    <t>Population ages 15-19, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
-  </si>
-  <si>
     <t>Population ages 20-24, male (% of male population)</t>
   </si>
   <si>
+    <t>Inflation, consumer prices (annual %)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, female (% of female population)</t>
+  </si>
+  <si>
     <t>Population ages 50-54, female (% of female population)</t>
   </si>
   <si>
-    <t>Population ages 55-59, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Number of maternal deaths</t>
+    <t>PPP conversion factor, private consumption (LCU per international $)</t>
   </si>
   <si>
     <t>Population ages 50-54, male (% of male population)</t>
   </si>
   <si>
-    <t>Inflation, consumer prices (annual %)</t>
-  </si>
-  <si>
-    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, private consumption (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
+    <t>CO2 emissions (kg per PPP $ of GDP)</t>
+  </si>
+  <si>
+    <t>Net official development assistance and official aid received (current US$)</t>
+  </si>
+  <si>
+    <t>Net official development assistance received (current US$)</t>
   </si>
   <si>
     <t>Population ages 45-49, female (% of female population)</t>
@@ -196,31 +253,34 @@
     <t>Population ages 45-49, male (% of male population)</t>
   </si>
   <si>
-    <t>Net official development assistance received (current US$)</t>
-  </si>
-  <si>
-    <t>Net official development assistance and official aid received (current US$)</t>
-  </si>
-  <si>
     <t>Population ages 25-29, female (% of female population)</t>
   </si>
   <si>
+    <t>Age dependency ratio (% of working-age population)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, male (% of male population)</t>
+  </si>
+  <si>
     <t>Age population, age 0, female, interpolated</t>
   </si>
   <si>
-    <t>Age dependency ratio (% of working-age population)</t>
-  </si>
-  <si>
     <t>Age population, age 0, male, interpolated</t>
   </si>
   <si>
     <t>Age population, age 01, female, interpolated</t>
   </si>
   <si>
-    <t>Population ages 40-44, male (% of male population)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kg per PPP $ of GDP)</t>
+    <t>Population ages 15-64, female (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Age population, age 01, male, interpolated</t>
+  </si>
+  <si>
+    <t>GDP per capita (Current US$)</t>
   </si>
   <si>
     <t>Female population 00-04</t>
@@ -229,75 +289,63 @@
     <t>Age population, age 02, female, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 01, male, interpolated</t>
+    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
+  </si>
+  <si>
+    <t>Age population, age 02, male, interpolated</t>
   </si>
   <si>
     <t>Male population 00-04</t>
   </si>
   <si>
-    <t>Age population, age 02, male, interpolated</t>
+    <t>Total debt service (% of exports of goods, services and primary income)</t>
   </si>
   <si>
     <t>Age population, age 03, female, interpolated</t>
   </si>
   <si>
-    <t>Population ages 40-44, female (% of female population)</t>
-  </si>
-  <si>
     <t>Age population, age 03, male, interpolated</t>
   </si>
   <si>
     <t>Age population, age 04, female, interpolated</t>
   </si>
   <si>
-    <t>Population ages 15-64, female (% of total)</t>
-  </si>
-  <si>
     <t>Age population, age 04, male, interpolated</t>
   </si>
   <si>
     <t>Age population, age 05, female, interpolated</t>
   </si>
   <si>
-    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
-  </si>
-  <si>
     <t>Newborns protected against tetanus (%)</t>
   </si>
   <si>
+    <t>Population ages 15-64 (% of total)</t>
+  </si>
+  <si>
     <t>Age population, age 05, male, interpolated</t>
   </si>
   <si>
     <t>Age population, age 06, female, interpolated</t>
   </si>
   <si>
-    <t>Total debt service (% of exports of goods, services and primary income)</t>
-  </si>
-  <si>
-    <t>Status under enhanced HIPC initiative</t>
+    <t>Population ages 25-29, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 0-14, female</t>
   </si>
   <si>
     <t>Female population 05-09</t>
   </si>
   <si>
-    <t>Population ages 0-14, female</t>
+    <t>Age population, age 06, male, interpolated</t>
   </si>
   <si>
     <t>Age population, age 07, female, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 06, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, male (% of male population)</t>
-  </si>
-  <si>
     <t>Population ages 00-14, total</t>
   </si>
   <si>
-    <t>Population ages 15-64 (% of total)</t>
-  </si>
-  <si>
     <t>Age population, age 08, female, interpolated</t>
   </si>
   <si>
@@ -316,87 +364,126 @@
     <t>Age population, age 08, male, interpolated</t>
   </si>
   <si>
+    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
+  </si>
+  <si>
     <t>Age population, age 10, female, interpolated</t>
   </si>
   <si>
-    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
-  </si>
-  <si>
     <t>Age population, age 09, male, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 11, female, interpolated</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000)</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male (% of total)</t>
+  </si>
+  <si>
+    <t>Age population, age 10, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 12, female, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 10-14</t>
+  </si>
+  <si>
+    <t>Fixed telephone subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Age population, age 11, male, interpolated</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Mortality rate, infant (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Age population, age 13, female, interpolated</t>
+  </si>
+  <si>
+    <t>CO2 emissions (metric tons per capita)</t>
+  </si>
+  <si>
+    <t>Male population 10-14</t>
+  </si>
+  <si>
+    <t>Age population, age 12, male, interpolated</t>
+  </si>
+  <si>
+    <t>Net ODA received per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>Age population, age 14, female, interpolated</t>
+  </si>
+  <si>
+    <t>External resources for health (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Age population, age 13, male, interpolated</t>
+  </si>
+  <si>
+    <t>Urban population (% of total)</t>
+  </si>
+  <si>
+    <t>Rural population (% of total population)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Mortality rate, neonatal (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Age population, age 15, female, interpolated</t>
+  </si>
+  <si>
+    <t>Net ODA received (% of GNI)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, male (days)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, female (days)</t>
+  </si>
+  <si>
+    <t>Age population, age 14, male, interpolated</t>
+  </si>
+  <si>
     <t>PPP conversion factor, GDP (LCU per international $)</t>
   </si>
   <si>
-    <t>Age population, age 11, female, interpolated</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000)</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Age population, age 10, male, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 10-14</t>
-  </si>
-  <si>
-    <t>Age population, age 12, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 11, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, male (% of total)</t>
-  </si>
-  <si>
-    <t>Age population, age 13, female, interpolated</t>
-  </si>
-  <si>
-    <t>Mortality rate, infant (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Male population 10-14</t>
-  </si>
-  <si>
-    <t>Age population, age 12, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 14, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 13, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 15, female, interpolated</t>
-  </si>
-  <si>
-    <t>Mortality rate, neonatal (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Rural population (% of total population)</t>
-  </si>
-  <si>
-    <t>Urban population (% of total)</t>
-  </si>
-  <si>
-    <t>Age population, age 14, male, interpolated</t>
-  </si>
-  <si>
-    <t>Time required to start a business, female (days)</t>
-  </si>
-  <si>
-    <t>Time required to start a business, male (days)</t>
+    <t>Health expenditure, private (% of GDP)</t>
   </si>
   <si>
     <t>Age population, age 16, female, interpolated</t>
   </si>
   <si>
+    <t>People using safely managed sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of government expenditure)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of GDP)</t>
+  </si>
+  <si>
     <t>Female population 15-19</t>
   </si>
   <si>
@@ -406,36 +493,48 @@
     <t>Age population, age 17, female, interpolated</t>
   </si>
   <si>
+    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, female (% of female adults)</t>
+  </si>
+  <si>
     <t>Age population, age 18, female, interpolated</t>
   </si>
   <si>
+    <t>Prevalence of overweight, male (% of male adults)</t>
+  </si>
+  <si>
+    <t>Proportion of seats held by women in national parliaments (%)</t>
+  </si>
+  <si>
     <t>Age population, age 16, male, interpolated</t>
   </si>
   <si>
-    <t>Proportion of seats held by women in national parliaments (%)</t>
-  </si>
-  <si>
-    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
-  </si>
-  <si>
     <t>Age population, age 19, female, interpolated</t>
   </si>
   <si>
+    <t>Immunization, DPT (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
+  </si>
+  <si>
+    <t>Immunization, Pol3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Immunization, measles (% of children ages 12-23 months)</t>
+  </si>
+  <si>
     <t>Male population 15-19</t>
   </si>
   <si>
-    <t>Immunization, DPT (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Immunization, Pol3 (% of one-year-old children)</t>
-  </si>
-  <si>
     <t>Age population, age 20, female, interpolated</t>
   </si>
   <si>
-    <t>Immunization, measles (% of children ages 12-23 months)</t>
-  </si>
-  <si>
     <t>Age population, age 17, male, interpolated</t>
   </si>
   <si>
@@ -448,22 +547,19 @@
     <t>Age population, age 18, male, interpolated</t>
   </si>
   <si>
-    <t>People using safely managed sanitation services (% of population)</t>
-  </si>
-  <si>
-    <t>GDP per capita (Current US$)</t>
+    <t>Health expenditure, public (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Age population, age 22, female, interpolated</t>
   </si>
   <si>
     <t>Female population 20-24</t>
   </si>
   <si>
-    <t>Age population, age 22, female, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 19, male, interpolated</t>
   </si>
   <si>
-    <t>Health expenditure, private (% of total health expenditure)</t>
+    <t>Prevalence of undernourishment (% of population)</t>
   </si>
   <si>
     <t>Age population, age 20, male, interpolated</t>
@@ -472,39 +568,33 @@
     <t>Age population, age 23, female, interpolated</t>
   </si>
   <si>
+    <t>Women's share of population ages 15+ living with HIV (%)</t>
+  </si>
+  <si>
     <t>Age population, age 21, male, interpolated</t>
   </si>
   <si>
-    <t>Net ODA received (% of GNI)</t>
-  </si>
-  <si>
-    <t>Women's share of population ages 15+ living with HIV (%)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
-  </si>
-  <si>
     <t>Age population, age 24, female, interpolated</t>
   </si>
   <si>
-    <t>Prevalence of undernourishment (% of population)</t>
-  </si>
-  <si>
-    <t>External resources for health (% of total expenditure on health)</t>
+    <t>Forest area (% of land area)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Age population, age 22, male, interpolated</t>
   </si>
   <si>
     <t>Male population 20-24</t>
   </si>
   <si>
-    <t>Age population, age 22, male, interpolated</t>
+    <t>School enrollment, tertiary, male (% gross)</t>
   </si>
   <si>
     <t>Prevalence of HIV, total (% of population ages 15-49)</t>
   </si>
   <si>
-    <t>Health expenditure, private (% of GDP)</t>
-  </si>
-  <si>
     <t>Prevalence of HIV, female (% ages 15-24)</t>
   </si>
   <si>
@@ -514,117 +604,111 @@
     <t>Age population, age 25, female, interpolated</t>
   </si>
   <si>
-    <t>Health expenditure, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of government expenditure)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of GDP)</t>
+    <t>Death rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
   </si>
   <si>
     <t>Age population, age 23, male, interpolated</t>
   </si>
   <si>
-    <t>Net ODA received per capita (current US$)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
-  </si>
-  <si>
     <t>Access to anti-retroviral drugs, female (%)</t>
   </si>
   <si>
-    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, female (% of female adults)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (metric tons per capita)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, male (% of male adults)</t>
-  </si>
-  <si>
     <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
   </si>
   <si>
+    <t>Start-up procedures to register a business, female (number)</t>
+  </si>
+  <si>
     <t>Start-up procedures to register a business, male (number)</t>
   </si>
   <si>
-    <t>Start-up procedures to register a business, female (number)</t>
-  </si>
-  <si>
     <t>Access to anti-retroviral drugs, male (%)</t>
   </si>
   <si>
+    <t>School enrollment, tertiary (% gross)</t>
+  </si>
+  <si>
     <t>Age population, age 24, male, interpolated</t>
   </si>
   <si>
-    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
+    <t>Population ages 35-39, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Age population, age 25, male, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 25-29</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, female</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, male</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Male population 25-29</t>
+  </si>
+  <si>
+    <t>Internet users (per 100 people)</t>
+  </si>
+  <si>
+    <t>GDP (current US$)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Secondary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% gross)</t>
+  </si>
+  <si>
+    <t>GDP per person employed (constant 2011 PPP $)</t>
   </si>
   <si>
     <t>Gross capital formation (% of GDP)</t>
   </si>
   <si>
-    <t>Age population, age 25, male, interpolated</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Female population 25-29</t>
-  </si>
-  <si>
-    <t>Internet users (per 100 people)</t>
-  </si>
-  <si>
-    <t>Male population 25-29</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, male (% of male population)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary, female (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary, male (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary (% gross)</t>
-  </si>
-  <si>
-    <t>GDP per person employed (constant 2011 PPP $)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
+    <t>Population, female (% of total)</t>
   </si>
   <si>
     <t>Population, male (% of total)</t>
   </si>
   <si>
-    <t>Population, female (% of total)</t>
-  </si>
-  <si>
     <t>Labor force, female</t>
   </si>
   <si>
-    <t>Population ages 35-39, female (% of female population)</t>
-  </si>
-  <si>
     <t>People practicing open defecation, rural (% of rural population)</t>
   </si>
   <si>
-    <t>Expected years of schooling, female</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, male</t>
+    <t>Gross graduation ratio, primary, female (%)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, primary, male (%)</t>
   </si>
   <si>
     <t>Prevalence of anemia among children (% of children under 5)</t>
   </si>
   <si>
+    <t>Lifetime risk of maternal death (%)</t>
+  </si>
+  <si>
+    <t>GNI, Atlas method (current US$)</t>
+  </si>
+  <si>
     <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
   </si>
   <si>
@@ -634,160 +718,190 @@
     <t>Prevalence of anemia among pregnant women (%)</t>
   </si>
   <si>
+    <t>Trade (% of GDP)</t>
+  </si>
+  <si>
     <t>People practicing open defecation, urban (% of urban population)</t>
   </si>
   <si>
     <t>Mobile cellular subscriptions (per 100 people)</t>
   </si>
   <si>
-    <t>Lifetime risk of maternal death (%)</t>
+    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Physicians (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, urban (% of urban population)</t>
   </si>
   <si>
     <t>Immunization, BCG (% of one-year-old children)</t>
   </si>
   <si>
-    <t>People using basic drinking water services, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
+    <t>Proportion of women in ministerial level positions (%)</t>
+  </si>
+  <si>
+    <t>Tuberculosis treatment success rate (% of new cases)</t>
+  </si>
+  <si>
+    <t>Employment in services, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
   </si>
   <si>
     <t>People using basic drinking water services, rural (% of rural population)</t>
   </si>
   <si>
+    <t>Employment in agriculture, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Public spending on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Government expenditure on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Employment in services, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Employment in industry, female (% of female employment)</t>
+  </si>
+  <si>
     <t>People using basic sanitation services, urban  (% of urban population)</t>
   </si>
   <si>
-    <t>GDP (current US$)</t>
+    <t>Employment in industry, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Pregnant women receiving prenatal care (%)</t>
+  </si>
+  <si>
+    <t>Improved water source, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (%, all forms)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (all forms)</t>
   </si>
   <si>
     <t>People using basic sanitation services, rural (% of rural population)</t>
   </si>
   <si>
+    <t>Contraceptive prevalence, any methods (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, tertiary, female (%)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, total (% of cohort)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, tertiary, male (%)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Tertiary education, academic staff (% female)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Improved water source (% of population with access)</t>
+  </si>
+  <si>
+    <t>Population, female</t>
+  </si>
+  <si>
+    <t>Improved water source, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Population, total</t>
+  </si>
+  <si>
     <t>Female population 30-34</t>
   </si>
   <si>
-    <t>Physicians (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Population, female</t>
-  </si>
-  <si>
-    <t>Population, total</t>
-  </si>
-  <si>
     <t>Population, male</t>
   </si>
   <si>
-    <t>Health expenditure per capita (current US$)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Secondary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, tertiary, female (%)</t>
-  </si>
-  <si>
-    <t>Tuberculosis case detection rate (all forms)</t>
-  </si>
-  <si>
-    <t>Tuberculosis case detection rate (%, all forms)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, tertiary, male (%)</t>
-  </si>
-  <si>
     <t>Female population 80+</t>
   </si>
   <si>
-    <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
+    <t>Forest area (sq. km)</t>
+  </si>
+  <si>
+    <t>Low-birthweight babies (% of births)</t>
   </si>
   <si>
     <t>Labor force, total</t>
   </si>
   <si>
-    <t>Incidence of tuberculosis (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, primary, female (%)</t>
-  </si>
-  <si>
-    <t>Improved water source, urban (% of urban population with access)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, primary, male (%)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Tertiary education, academic staff (% female)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, female (% of cohort)</t>
+    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>Male population 80+</t>
   </si>
   <si>
     <t>Male population 30-34</t>
   </si>
   <si>
-    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Improved water source (% of population with access)</t>
-  </si>
-  <si>
-    <t>Male population 80+</t>
-  </si>
-  <si>
-    <t>Improved water source, rural (% of rural population with access)</t>
-  </si>
-  <si>
-    <t>Forest area (sq. km)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, total (% of cohort)</t>
-  </si>
-  <si>
-    <t>Tuberculosis treatment success rate (% of new cases)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, female (% of female population)</t>
+    <t>Unemployment, male (% of male labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Primary education, pupils (% female)</t>
   </si>
   <si>
     <t>Population ages 15-64, female</t>
-  </si>
-  <si>
-    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, total</t>
-  </si>
-  <si>
-    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
-  </si>
-  <si>
-    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
-  </si>
-  <si>
-    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
   </si>
 </sst>
 </file>
@@ -1145,7 +1259,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C257"/>
+  <dimension ref="A1:C295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1164,7 +1278,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>351.7103622877767</v>
+        <v>3433.550104609481</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1175,7 +1289,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>340.6583811318932</v>
+        <v>1719.712657580544</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1186,7 +1300,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>277.4443617087028</v>
+        <v>1665.184846840198</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1197,7 +1311,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>274.8542230666371</v>
+        <v>703.9414830261859</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1208,7 +1322,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>263.5429052097706</v>
+        <v>403.1621800825852</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1219,7 +1333,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>256.2913754854464</v>
+        <v>370.8774933706992</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1230,7 +1344,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>252.0696734633384</v>
+        <v>361.2860905801344</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1241,7 +1355,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>250.3611321516426</v>
+        <v>358.9454229545227</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1252,7 +1366,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>241.5751389191319</v>
+        <v>335.6539115063961</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1263,7 +1377,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>237.6771633038742</v>
+        <v>335.6539115063961</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1274,7 +1388,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>236.3978755255433</v>
+        <v>333.3566118383981</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1285,7 +1399,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>234.2720685310133</v>
+        <v>329.4650262220856</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1296,7 +1410,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>233.8308090656254</v>
+        <v>328.8283539219406</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1307,7 +1421,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>232.3960702369746</v>
+        <v>319.7281123839321</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1318,7 +1432,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>219.6925472337223</v>
+        <v>308.8817389135696</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1329,7 +1443,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>213.5749203833625</v>
+        <v>286.1664056532186</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1340,7 +1454,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>206.914770354498</v>
+        <v>285.174158154492</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1351,7 +1465,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>202.7604915889938</v>
+        <v>281.6966002239071</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1362,7 +1476,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>197.5835768313933</v>
+        <v>278.6308045242824</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1373,7 +1487,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>197.5835768313933</v>
+        <v>264.1455224774945</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1384,7 +1498,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>192.6977214000385</v>
+        <v>257.2583272205081</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1395,7 +1509,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>191.392366003576</v>
+        <v>244.7213697943695</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1406,7 +1520,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>188.4251474072981</v>
+        <v>239.8651512006145</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1417,7 +1531,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>186.5909465565512</v>
+        <v>232.8556105859273</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1428,7 +1542,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>185.3926057381925</v>
+        <v>230.939765027158</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1439,7 +1553,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>171.2198209046649</v>
+        <v>226.3738533936085</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1450,7 +1564,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>168.6196270371039</v>
+        <v>219.7927498815256</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1461,7 +1575,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>164.462922954614</v>
+        <v>218.9890280393256</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1472,7 +1586,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>154.2287659794337</v>
+        <v>218.1777507428723</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1483,7 +1597,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>146.3057004453761</v>
+        <v>217.9848460805965</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1494,7 +1608,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>142.6004182819183</v>
+        <v>206.3477439555431</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1505,7 +1619,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>138.9126246790715</v>
+        <v>204.9745207879481</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1516,7 +1630,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>133.6144682777501</v>
+        <v>193.9650759361388</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1527,7 +1641,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>127.0319959675688</v>
+        <v>185.7042767335245</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1538,7 +1652,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>125.9696842948221</v>
+        <v>181.3539114620966</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1549,7 +1663,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>122.5033815462898</v>
+        <v>180.924734047551</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1560,7 +1674,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>120.9310648240855</v>
+        <v>180.924734047551</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1571,7 +1685,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>116.4022823499353</v>
+        <v>176.5650345398753</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1582,7 +1696,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>113.2802493249562</v>
+        <v>175.6556744576018</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1593,7 +1707,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>112.6837147739698</v>
+        <v>175.2889814044086</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1604,7 +1718,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>111.1519265919697</v>
+        <v>172.5393265032365</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1615,7 +1729,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>111.1519265919697</v>
+        <v>167.7243822548717</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1626,7 +1740,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>105.8806756053827</v>
+        <v>154.7268040481493</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1637,7 +1751,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>104.6658385188432</v>
+        <v>149.5098190312866</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1648,7 +1762,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>104.5497544623533</v>
+        <v>147.7462776963669</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1659,7 +1773,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>103.8203857724472</v>
+        <v>132.4408598086526</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -1670,7 +1784,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>99.04866480825321</v>
+        <v>130.1243484936843</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -1681,7 +1795,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>98.46735272873467</v>
+        <v>129.4477254930108</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -1692,7 +1806,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>98.07932638256716</v>
+        <v>123.3363953936694</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1703,7 +1817,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>97.93388931207565</v>
+        <v>119.0502700251755</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1714,7 +1828,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>96.23103206202182</v>
+        <v>117.8569629476834</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1725,7 +1839,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>96.13407512108112</v>
+        <v>117.1627262347492</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -1736,7 +1850,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>91.00048308534952</v>
+        <v>114.8473940222677</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -1747,7 +1861,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>90.19729922235848</v>
+        <v>114.8078435413182</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1758,7 +1872,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>88.96130031741744</v>
+        <v>114.2016603089148</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1769,7 +1883,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>87.18853745583199</v>
+        <v>114.2016603089148</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -1780,7 +1894,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>87.01949344018399</v>
+        <v>113.1808150322679</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -1791,7 +1905,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>86.27548136787738</v>
+        <v>112.120103400274</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -1802,7 +1916,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>81.81548903746636</v>
+        <v>107.8738743618047</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -1813,7 +1927,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>81.81548903746636</v>
+        <v>107.5072400785253</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -1824,7 +1938,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>76.6960670719798</v>
+        <v>104.8476208632716</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -1835,7 +1949,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>69.83793302354232</v>
+        <v>104.7260647648254</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -1846,7 +1960,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>68.2463939301111</v>
+        <v>99.60003941233819</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -1857,7 +1971,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>68.21123092694233</v>
+        <v>99.12875373637942</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -1868,7 +1982,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>68.19114898661495</v>
+        <v>97.06389449515255</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -1879,7 +1993,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>67.83604919773519</v>
+        <v>96.67846898748203</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -1890,7 +2004,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>67.05241920782275</v>
+        <v>93.66003263634742</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -1901,7 +2015,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>66.85437235575274</v>
+        <v>91.07578267109051</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -1912,7 +2026,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>66.74932439567392</v>
+        <v>90.69551453598341</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -1923,7 +2037,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>66.71556024162196</v>
+        <v>90.42238866601342</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -1934,7 +2048,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>65.36941923935345</v>
+        <v>89.15863184711746</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -1945,7 +2059,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>65.31937330825789</v>
+        <v>88.3148282174032</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -1956,7 +2070,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>65.15643381047376</v>
+        <v>86.5897096888126</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -1967,7 +2081,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>64.14427003820447</v>
+        <v>83.08893068327171</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -1978,7 +2092,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>63.74466005807655</v>
+        <v>83.08893068327171</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -1989,7 +2103,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>63.48289081181688</v>
+        <v>80.93233750936361</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -2000,7 +2114,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>63.45504332417897</v>
+        <v>78.92989352175226</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -2011,7 +2125,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>62.01764255761559</v>
+        <v>73.56577805828412</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -2022,7 +2136,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>61.73241970150407</v>
+        <v>67.81028388235583</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -2033,7 +2147,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>60.68398331838694</v>
+        <v>65.60235217976076</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -2044,7 +2158,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>60.60302212848347</v>
+        <v>65.44936337145873</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -2055,7 +2169,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>60.17038057128146</v>
+        <v>63.90135602744785</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -2066,7 +2180,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>60.00660599000945</v>
+        <v>63.89062901919924</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -2077,7 +2191,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>59.98912025616795</v>
+        <v>63.28472230760271</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -2088,7 +2202,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>59.84843707309672</v>
+        <v>62.59326624620887</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -2099,7 +2213,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>58.46283002579293</v>
+        <v>62.50023237951552</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -2110,7 +2224,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>58.31191505997199</v>
+        <v>62.42431954666758</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -2121,7 +2235,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>58.30429773260316</v>
+        <v>62.36634721573145</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -2132,7 +2246,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>58.30369454610373</v>
+        <v>62.35185881870749</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -2143,7 +2257,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>57.2991223157235</v>
+        <v>61.59787768513031</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -2154,7 +2268,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>57.25302178210787</v>
+        <v>61.01490539061796</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -2165,7 +2279,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>56.84702423390362</v>
+        <v>60.97617887694538</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -2176,7 +2290,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>56.61509903941612</v>
+        <v>60.85769491359821</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -2187,7 +2301,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>56.56584449195975</v>
+        <v>60.68922775786691</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -2198,7 +2312,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>56.42875998149468</v>
+        <v>59.37914443449328</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -2209,7 +2323,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>56.24475041681448</v>
+        <v>58.97750029575035</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -2220,7 +2334,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>54.94606385252583</v>
+        <v>57.62279108584947</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -2231,7 +2345,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>54.54709668338954</v>
+        <v>57.2174784890209</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -2242,7 +2356,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>53.28789306450631</v>
+        <v>56.7205507295518</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -2253,7 +2367,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>53.27769145565766</v>
+        <v>56.09489758830727</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -2264,7 +2378,7 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>53.27769145565766</v>
+        <v>55.77570837006004</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -2275,7 +2389,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>52.67173389226944</v>
+        <v>55.50347223988243</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -2286,7 +2400,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>52.57449192914298</v>
+        <v>54.22770398618216</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -2297,7 +2411,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>51.61546563430344</v>
+        <v>53.94672850171565</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -2308,7 +2422,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>50.84417060387211</v>
+        <v>53.93762496505512</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -2319,7 +2433,7 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>50.84417060387211</v>
+        <v>53.9318480922738</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -2330,7 +2444,7 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>50.80869294558698</v>
+        <v>53.83022891138425</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -2341,7 +2455,7 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>49.95191154589699</v>
+        <v>52.96282642799281</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -2352,7 +2466,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>49.88947793410527</v>
+        <v>52.1985103156819</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -2363,7 +2477,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>48.95260700540407</v>
+        <v>52.18330169390602</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -2374,7 +2488,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>48.55431882887516</v>
+        <v>52.09850259867631</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -2385,7 +2499,7 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>48.08974548314457</v>
+        <v>52.02600247351042</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -2396,7 +2510,7 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>47.78274174671901</v>
+        <v>50.61813473036966</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -2407,7 +2521,7 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>47.19888485439687</v>
+        <v>50.28680637376004</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -2418,7 +2532,7 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>47.08575885668051</v>
+        <v>49.73773207408165</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -2429,7 +2543,7 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>46.18466380700912</v>
+        <v>49.73773207408165</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -2440,7 +2554,7 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>45.19050206749281</v>
+        <v>49.07084798911244</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -2451,7 +2565,7 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>44.28953938011094</v>
+        <v>48.51212599392549</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -2462,7 +2576,7 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>44.16337954380334</v>
+        <v>47.51749687295165</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -2473,7 +2587,7 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>43.31837451207618</v>
+        <v>47.45620576408525</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -2484,7 +2598,7 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>43.31837451207577</v>
+        <v>47.45620576408525</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -2495,7 +2609,7 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>43.23041280280771</v>
+        <v>47.37147462342399</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -2506,7 +2620,7 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>42.82336567224188</v>
+        <v>46.77166413219572</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -2517,7 +2631,7 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>42.82336567224188</v>
+        <v>45.91982876285489</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -2528,7 +2642,7 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>42.57097217192673</v>
+        <v>45.90993792661983</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -2539,7 +2653,7 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>41.54889821203083</v>
+        <v>45.90407046287386</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -2550,7 +2664,7 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>41.3017214989809</v>
+        <v>45.04682341076583</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -2561,7 +2675,7 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>41.12343629114275</v>
+        <v>44.80931576356264</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -2572,7 +2686,7 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>39.91999342821127</v>
+        <v>44.5178795972179</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -2583,7 +2697,7 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>39.54839335624617</v>
+        <v>44.24945612894624</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -2594,7 +2708,7 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>39.24388083094686</v>
+        <v>43.43065905751101</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -2605,7 +2719,7 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>39.14024164454424</v>
+        <v>43.3592985085089</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -2616,7 +2730,7 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>38.9494607580298</v>
+        <v>43.32038485968422</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -2627,7 +2741,7 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>38.45115355370213</v>
+        <v>43.17563641143265</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -2638,7 +2752,7 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>38.31975945392355</v>
+        <v>42.94140167282696</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -2649,7 +2763,7 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>38.17833078034101</v>
+        <v>42.47018589297107</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -2660,7 +2774,7 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>38.07952024663257</v>
+        <v>41.9361542151729</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -2671,7 +2785,7 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>38.04540809248365</v>
+        <v>41.56668015014169</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -2682,7 +2796,7 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>38.04250451308464</v>
+        <v>41.51077763276634</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -2693,7 +2807,7 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>37.44134070516717</v>
+        <v>41.5107776327643</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -2704,7 +2818,7 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>37.12578026596196</v>
+        <v>41.45179083414709</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -2715,7 +2829,7 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>36.75570289742255</v>
+        <v>41.09422551260266</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -2726,7 +2840,7 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>36.09844143279891</v>
+        <v>40.70076739006184</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -2737,7 +2851,7 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>36.07975752078102</v>
+        <v>40.19054923992676</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -2748,7 +2862,7 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>35.99702198794833</v>
+        <v>40.12043467173638</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -2759,7 +2873,7 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>35.96626669077224</v>
+        <v>40.12043467173638</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -2770,7 +2884,7 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>35.69118092917648</v>
+        <v>39.74505570083956</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -2781,7 +2895,7 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>35.50984180613872</v>
+        <v>39.68970665595666</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -2792,7 +2906,7 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>34.72583113150999</v>
+        <v>39.12394631879052</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -2803,7 +2917,7 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>34.60758984994722</v>
+        <v>39.11551377933697</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -2814,7 +2928,7 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>33.67584603480581</v>
+        <v>38.71251202003388</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -2825,7 +2939,7 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>33.5802025389947</v>
+        <v>38.59046221483899</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -2836,7 +2950,7 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>33.53532658548179</v>
+        <v>38.23606450067937</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -2847,7 +2961,7 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>33.27378717180449</v>
+        <v>38.1681478077792</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -2858,7 +2972,7 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>33.0973723509194</v>
+        <v>38.15290398542256</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -2869,7 +2983,7 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>32.49804833391268</v>
+        <v>37.95473277941144</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -2880,7 +2994,7 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>32.48264251758831</v>
+        <v>37.80801583146603</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -2891,7 +3005,7 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>32.45739074184546</v>
+        <v>37.68761532087446</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -2902,7 +3016,7 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>32.4251161642153</v>
+        <v>37.22551155764388</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -2913,7 +3027,7 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>31.73171198629625</v>
+        <v>36.89800554436354</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -2924,7 +3038,7 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>31.67697214524042</v>
+        <v>36.73709223324561</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -2935,7 +3049,7 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>31.67013709663363</v>
+        <v>36.67474951051532</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -2946,7 +3060,7 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>31.63504806821297</v>
+        <v>36.57582118759324</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -2957,7 +3071,7 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>31.43266640316903</v>
+        <v>36.34672310208061</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -2968,7 +3082,7 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>31.31859555626156</v>
+        <v>35.88485590251129</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -2979,7 +3093,7 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>31.11013375984489</v>
+        <v>35.69372341959448</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -2990,7 +3104,7 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>31.03096016065856</v>
+        <v>35.65362447365631</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -3001,7 +3115,7 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>30.98982858022746</v>
+        <v>35.54109945994338</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -3012,7 +3126,7 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>30.95469124834126</v>
+        <v>35.43895382831622</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -3023,7 +3137,7 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>30.71114525350396</v>
+        <v>35.32201743427459</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -3034,7 +3148,7 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>30.47488494695183</v>
+        <v>35.12725257309189</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -3045,7 +3159,7 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>30.38456371850915</v>
+        <v>34.99258840277616</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -3056,7 +3170,7 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>30.15410555411078</v>
+        <v>34.72852841807637</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -3067,7 +3181,7 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>30.04822744666527</v>
+        <v>34.2862435568061</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -3078,7 +3192,7 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>30.01096713477207</v>
+        <v>33.85235583567723</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -3089,7 +3203,7 @@
         <v>177</v>
       </c>
       <c r="B177">
-        <v>29.90036120544269</v>
+        <v>33.24143685611597</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -3100,7 +3214,7 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>29.80742966453807</v>
+        <v>33.22939220766946</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -3111,7 +3225,7 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>29.80742966453807</v>
+        <v>33.21748527588638</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -3122,7 +3236,7 @@
         <v>180</v>
       </c>
       <c r="B180">
-        <v>29.64648040624418</v>
+        <v>32.92321960479803</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -3133,7 +3247,7 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>29.40839514416355</v>
+        <v>32.84256789416627</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -3144,7 +3258,7 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>29.30925847362412</v>
+        <v>32.08800661777612</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -3155,7 +3269,7 @@
         <v>183</v>
       </c>
       <c r="B183">
-        <v>28.88467058127053</v>
+        <v>32.01320574303925</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -3166,7 +3280,7 @@
         <v>184</v>
       </c>
       <c r="B184">
-        <v>27.6749830795662</v>
+        <v>31.22090395292521</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -3177,7 +3291,7 @@
         <v>185</v>
       </c>
       <c r="B185">
-        <v>27.61811659287182</v>
+        <v>31.16674047879346</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -3188,7 +3302,7 @@
         <v>186</v>
       </c>
       <c r="B186">
-        <v>27.32132658411501</v>
+        <v>30.70798300113613</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -3199,7 +3313,7 @@
         <v>187</v>
       </c>
       <c r="B187">
-        <v>24.72503933873735</v>
+        <v>30.66231012629694</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -3210,7 +3324,7 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>23.5272566009628</v>
+        <v>30.08308805514976</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -3221,7 +3335,7 @@
         <v>189</v>
       </c>
       <c r="B189">
-        <v>22.48475801108414</v>
+        <v>30.03324252106993</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -3232,7 +3346,7 @@
         <v>190</v>
       </c>
       <c r="B190">
-        <v>22.42061645200007</v>
+        <v>30.01877965930971</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -3243,10 +3357,10 @@
         <v>191</v>
       </c>
       <c r="B191">
-        <v>22.14220828148503</v>
+        <v>29.7342660957588</v>
       </c>
       <c r="C191">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3254,10 +3368,10 @@
         <v>192</v>
       </c>
       <c r="B192">
-        <v>22.13251962329088</v>
+        <v>29.54226820032151</v>
       </c>
       <c r="C192">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -3265,10 +3379,10 @@
         <v>193</v>
       </c>
       <c r="B193">
-        <v>22.04720694798905</v>
+        <v>29.4845406808725</v>
       </c>
       <c r="C193">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -3276,10 +3390,10 @@
         <v>194</v>
       </c>
       <c r="B194">
-        <v>21.5480867198096</v>
+        <v>29.45156241087819</v>
       </c>
       <c r="C194">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -3287,10 +3401,10 @@
         <v>195</v>
       </c>
       <c r="B195">
-        <v>20.66618917205712</v>
+        <v>29.28006305870046</v>
       </c>
       <c r="C195">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -3298,10 +3412,10 @@
         <v>196</v>
       </c>
       <c r="B196">
-        <v>20.6661891720527</v>
+        <v>29.15183184490084</v>
       </c>
       <c r="C196">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -3309,10 +3423,10 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <v>20.40592269436574</v>
+        <v>28.94985263716802</v>
       </c>
       <c r="C197">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -3320,10 +3434,10 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>19.02290380131763</v>
+        <v>28.74418358186066</v>
       </c>
       <c r="C198">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -3331,10 +3445,10 @@
         <v>199</v>
       </c>
       <c r="B199">
-        <v>17.90544398701745</v>
+        <v>28.3030638394472</v>
       </c>
       <c r="C199">
-        <v>4e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -3342,10 +3456,10 @@
         <v>200</v>
       </c>
       <c r="B200">
-        <v>17.78184203469001</v>
+        <v>27.79336728019154</v>
       </c>
       <c r="C200">
-        <v>4e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -3353,10 +3467,10 @@
         <v>201</v>
       </c>
       <c r="B201">
-        <v>17.7636625384695</v>
+        <v>27.69594175154507</v>
       </c>
       <c r="C201">
-        <v>4e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -3364,10 +3478,10 @@
         <v>202</v>
       </c>
       <c r="B202">
-        <v>17.55737196420245</v>
+        <v>27.69594175154507</v>
       </c>
       <c r="C202">
-        <v>5e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -3375,10 +3489,10 @@
         <v>203</v>
       </c>
       <c r="B203">
-        <v>17.18436778319321</v>
+        <v>27.5783890345468</v>
       </c>
       <c r="C203">
-        <v>6e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -3386,10 +3500,10 @@
         <v>204</v>
       </c>
       <c r="B204">
-        <v>17.17740073843815</v>
+        <v>27.48697016857347</v>
       </c>
       <c r="C204">
-        <v>6e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -3397,10 +3511,10 @@
         <v>205</v>
       </c>
       <c r="B205">
-        <v>17.13935314070012</v>
+        <v>27.35666777307182</v>
       </c>
       <c r="C205">
-        <v>6e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -3408,10 +3522,10 @@
         <v>206</v>
       </c>
       <c r="B206">
-        <v>16.48088576945475</v>
+        <v>27.10581325986652</v>
       </c>
       <c r="C206">
-        <v>8.000000000000001e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -3419,10 +3533,10 @@
         <v>207</v>
       </c>
       <c r="B207">
-        <v>16.47222008680186</v>
+        <v>25.83779202400144</v>
       </c>
       <c r="C207">
-        <v>8.000000000000001e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -3430,10 +3544,10 @@
         <v>208</v>
       </c>
       <c r="B208">
-        <v>16.08220989001455</v>
+        <v>25.45731516753436</v>
       </c>
       <c r="C208">
-        <v>9.000000000000001e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -3441,10 +3555,10 @@
         <v>209</v>
       </c>
       <c r="B209">
-        <v>15.60910340389364</v>
+        <v>24.01318246506564</v>
       </c>
       <c r="C209">
-        <v>0.00012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -3452,10 +3566,10 @@
         <v>210</v>
       </c>
       <c r="B210">
-        <v>15.52931232924493</v>
+        <v>23.9902160733003</v>
       </c>
       <c r="C210">
-        <v>0.00012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -3463,10 +3577,10 @@
         <v>211</v>
       </c>
       <c r="B211">
-        <v>14.69667627719715</v>
+        <v>22.65991329732521</v>
       </c>
       <c r="C211">
-        <v>0.00018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -3474,10 +3588,10 @@
         <v>212</v>
       </c>
       <c r="B212">
-        <v>14.26946400937099</v>
+        <v>21.93828599461866</v>
       </c>
       <c r="C212">
-        <v>0.00023</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -3485,10 +3599,10 @@
         <v>213</v>
       </c>
       <c r="B213">
-        <v>13.88974209727103</v>
+        <v>21.7371210754268</v>
       </c>
       <c r="C213">
-        <v>0.00027</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -3496,10 +3610,10 @@
         <v>214</v>
       </c>
       <c r="B214">
-        <v>13.88260600860174</v>
+        <v>21.70307254400219</v>
       </c>
       <c r="C214">
-        <v>0.00027</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -3507,10 +3621,10 @@
         <v>215</v>
       </c>
       <c r="B215">
-        <v>13.43240536472823</v>
+        <v>21.03457023139823</v>
       </c>
       <c r="C215">
-        <v>0.00034</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -3518,10 +3632,10 @@
         <v>216</v>
       </c>
       <c r="B216">
-        <v>13.21554152428765</v>
+        <v>20.99138582084614</v>
       </c>
       <c r="C216">
-        <v>0.00038</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -3529,10 +3643,10 @@
         <v>217</v>
       </c>
       <c r="B217">
-        <v>12.92472573191551</v>
+        <v>20.98509582048643</v>
       </c>
       <c r="C217">
-        <v>0.00044</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -3540,10 +3654,10 @@
         <v>218</v>
       </c>
       <c r="B218">
-        <v>12.84755161475226</v>
+        <v>20.97244019176169</v>
       </c>
       <c r="C218">
-        <v>0.00045</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -3551,10 +3665,10 @@
         <v>219</v>
       </c>
       <c r="B219">
-        <v>12.56140468960178</v>
+        <v>20.95414402504758</v>
       </c>
       <c r="C219">
-        <v>0.00052</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -3562,10 +3676,10 @@
         <v>220</v>
       </c>
       <c r="B220">
-        <v>12.27444363949054</v>
+        <v>20.3949303236937</v>
       </c>
       <c r="C220">
-        <v>0.0005999999999999999</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -3573,10 +3687,10 @@
         <v>221</v>
       </c>
       <c r="B221">
-        <v>11.84096132022202</v>
+        <v>20.046930607727</v>
       </c>
       <c r="C221">
-        <v>0.00075</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -3584,10 +3698,10 @@
         <v>222</v>
       </c>
       <c r="B222">
-        <v>11.56505206831764</v>
+        <v>19.12954762288751</v>
       </c>
       <c r="C222">
-        <v>0.00086</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -3595,10 +3709,10 @@
         <v>223</v>
       </c>
       <c r="B223">
-        <v>11.54031534529754</v>
+        <v>19.12954762282435</v>
       </c>
       <c r="C223">
-        <v>0.00087</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -3606,10 +3720,10 @@
         <v>224</v>
       </c>
       <c r="B224">
-        <v>11.53723961272096</v>
+        <v>18.80418640624516</v>
       </c>
       <c r="C224">
-        <v>0.00087</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -3617,10 +3731,10 @@
         <v>225</v>
       </c>
       <c r="B225">
-        <v>11.52917380324863</v>
+        <v>17.27345962349201</v>
       </c>
       <c r="C225">
-        <v>0.00087</v>
+        <v>6e-05</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -3628,10 +3742,10 @@
         <v>226</v>
       </c>
       <c r="B226">
-        <v>11.51842068162287</v>
+        <v>17.21553046509234</v>
       </c>
       <c r="C226">
-        <v>0.00088</v>
+        <v>6e-05</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -3639,10 +3753,10 @@
         <v>227</v>
       </c>
       <c r="B227">
-        <v>11.51527109787438</v>
+        <v>17.11603722177565</v>
       </c>
       <c r="C227">
-        <v>0.00088</v>
+        <v>6e-05</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -3650,10 +3764,10 @@
         <v>228</v>
       </c>
       <c r="B228">
-        <v>11.42849604488827</v>
+        <v>16.41630740912511</v>
       </c>
       <c r="C228">
-        <v>0.00092</v>
+        <v>8.000000000000001e-05</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -3661,10 +3775,10 @@
         <v>229</v>
       </c>
       <c r="B229">
-        <v>11.42849604488827</v>
+        <v>16.40524635819195</v>
       </c>
       <c r="C229">
-        <v>0.00092</v>
+        <v>8.000000000000001e-05</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -3672,10 +3786,10 @@
         <v>230</v>
       </c>
       <c r="B230">
-        <v>11.39396817018166</v>
+        <v>16.29493431434823</v>
       </c>
       <c r="C230">
-        <v>0.00094</v>
+        <v>9.000000000000001e-05</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -3683,10 +3797,10 @@
         <v>231</v>
       </c>
       <c r="B231">
-        <v>11.17293624211703</v>
+        <v>16.06602241549028</v>
       </c>
       <c r="C231">
-        <v>0.00104</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -3694,10 +3808,10 @@
         <v>232</v>
       </c>
       <c r="B232">
-        <v>10.4629559890179</v>
+        <v>16.0591792907977</v>
       </c>
       <c r="C232">
-        <v>0.00149</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -3705,10 +3819,10 @@
         <v>233</v>
       </c>
       <c r="B233">
-        <v>10.41103745144993</v>
+        <v>16.02252353543063</v>
       </c>
       <c r="C233">
-        <v>0.00153</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -3716,10 +3830,10 @@
         <v>234</v>
       </c>
       <c r="B234">
-        <v>10.30909699364819</v>
+        <v>15.935500475771</v>
       </c>
       <c r="C234">
-        <v>0.00162</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -3727,10 +3841,10 @@
         <v>235</v>
       </c>
       <c r="B235">
-        <v>10.24711548760753</v>
+        <v>15.84474699942119</v>
       </c>
       <c r="C235">
-        <v>0.00167</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -3738,10 +3852,10 @@
         <v>236</v>
       </c>
       <c r="B236">
-        <v>10.23494252778053</v>
+        <v>15.7618459658012</v>
       </c>
       <c r="C236">
-        <v>0.00168</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -3749,10 +3863,10 @@
         <v>237</v>
       </c>
       <c r="B237">
-        <v>10.20566211789018</v>
+        <v>15.75912414992068</v>
       </c>
       <c r="C237">
-        <v>0.0017</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -3760,10 +3874,10 @@
         <v>238</v>
       </c>
       <c r="B238">
-        <v>10.20211553604848</v>
+        <v>15.34090734188838</v>
       </c>
       <c r="C238">
-        <v>0.00171</v>
+        <v>0.00014</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3771,10 +3885,10 @@
         <v>239</v>
       </c>
       <c r="B239">
-        <v>10.1977467876831</v>
+        <v>15.33504923688959</v>
       </c>
       <c r="C239">
-        <v>0.00171</v>
+        <v>0.00014</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3782,10 +3896,10 @@
         <v>240</v>
       </c>
       <c r="B240">
-        <v>10.18919160562755</v>
+        <v>14.89256458179779</v>
       </c>
       <c r="C240">
-        <v>0.00172</v>
+        <v>0.00017</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3793,10 +3907,10 @@
         <v>241</v>
       </c>
       <c r="B241">
-        <v>10.18482956854005</v>
+        <v>14.70244239171299</v>
       </c>
       <c r="C241">
-        <v>0.00172</v>
+        <v>0.00019</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3804,10 +3918,10 @@
         <v>242</v>
       </c>
       <c r="B242">
-        <v>10.1845279318926</v>
+        <v>14.41861867221475</v>
       </c>
       <c r="C242">
-        <v>0.00172</v>
+        <v>0.00022</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3815,10 +3929,10 @@
         <v>243</v>
       </c>
       <c r="B243">
-        <v>10.15649238946304</v>
+        <v>13.94631442289237</v>
       </c>
       <c r="C243">
-        <v>0.00175</v>
+        <v>0.00027</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3826,10 +3940,10 @@
         <v>244</v>
       </c>
       <c r="B244">
-        <v>9.894660166170496</v>
+        <v>13.81927679952302</v>
       </c>
       <c r="C244">
-        <v>0.00199</v>
+        <v>0.00029</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3837,10 +3951,10 @@
         <v>245</v>
       </c>
       <c r="B245">
-        <v>9.736422801249248</v>
+        <v>13.73350058744747</v>
       </c>
       <c r="C245">
-        <v>0.00216</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3848,10 +3962,10 @@
         <v>246</v>
       </c>
       <c r="B246">
-        <v>9.464449977130316</v>
+        <v>13.63475706195348</v>
       </c>
       <c r="C246">
-        <v>0.00249</v>
+        <v>0.00032</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3859,10 +3973,10 @@
         <v>247</v>
       </c>
       <c r="B247">
-        <v>9.38384582207734</v>
+        <v>13.59210724016876</v>
       </c>
       <c r="C247">
-        <v>0.00259</v>
+        <v>0.00032</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3870,10 +3984,10 @@
         <v>248</v>
       </c>
       <c r="B248">
-        <v>9.082281317130253</v>
+        <v>13.5857278186569</v>
       </c>
       <c r="C248">
-        <v>0.00302</v>
+        <v>0.00032</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3881,10 +3995,10 @@
         <v>249</v>
       </c>
       <c r="B249">
-        <v>8.4496876754755</v>
+        <v>13.5857278186569</v>
       </c>
       <c r="C249">
-        <v>0.0042</v>
+        <v>0.00032</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3892,10 +4006,10 @@
         <v>250</v>
       </c>
       <c r="B250">
-        <v>8.062225752026807</v>
+        <v>13.57351834448106</v>
       </c>
       <c r="C250">
-        <v>0.00514</v>
+        <v>0.00033</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3903,10 +4017,10 @@
         <v>251</v>
       </c>
       <c r="B251">
-        <v>8.025713432839604</v>
+        <v>13.56068343533241</v>
       </c>
       <c r="C251">
-        <v>0.00524</v>
+        <v>0.00033</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3914,10 +4028,10 @@
         <v>252</v>
       </c>
       <c r="B252">
-        <v>7.705538172911515</v>
+        <v>13.53275449200419</v>
       </c>
       <c r="C252">
-        <v>0.0062</v>
+        <v>0.00033</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3925,10 +4039,10 @@
         <v>253</v>
       </c>
       <c r="B253">
-        <v>7.616987503923449</v>
+        <v>13.53275449200419</v>
       </c>
       <c r="C253">
-        <v>0.00649</v>
+        <v>0.00033</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3936,10 +4050,10 @@
         <v>254</v>
       </c>
       <c r="B254">
-        <v>7.054901112649073</v>
+        <v>13.4257617430827</v>
       </c>
       <c r="C254">
-        <v>0.008750000000000001</v>
+        <v>0.00035</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3947,10 +4061,10 @@
         <v>255</v>
       </c>
       <c r="B255">
-        <v>7.04473563258108</v>
+        <v>13.2563193592444</v>
       </c>
       <c r="C255">
-        <v>0.008800000000000001</v>
+        <v>0.00038</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3958,10 +4072,10 @@
         <v>256</v>
       </c>
       <c r="B256">
-        <v>7.044409337728657</v>
+        <v>13.13295158051993</v>
       </c>
       <c r="C256">
-        <v>0.008800000000000001</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3969,10 +4083,428 @@
         <v>257</v>
       </c>
       <c r="B257">
-        <v>6.840413562716684</v>
+        <v>13.08792458333087</v>
       </c>
       <c r="C257">
-        <v>0.009809999999999999</v>
+        <v>0.00041</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B258">
+        <v>12.88653986768253</v>
+      </c>
+      <c r="C258">
+        <v>0.00046</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B259">
+        <v>12.82175403843642</v>
+      </c>
+      <c r="C259">
+        <v>0.00047</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B260">
+        <v>12.82175403843642</v>
+      </c>
+      <c r="C260">
+        <v>0.00047</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B261">
+        <v>12.80095939609348</v>
+      </c>
+      <c r="C261">
+        <v>0.00048</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B262">
+        <v>12.75204141238406</v>
+      </c>
+      <c r="C262">
+        <v>0.00049</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B263">
+        <v>12.72074454031704</v>
+      </c>
+      <c r="C263">
+        <v>0.00049</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B264">
+        <v>12.63584999638393</v>
+      </c>
+      <c r="C264">
+        <v>0.00052</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B265">
+        <v>12.59318374519677</v>
+      </c>
+      <c r="C265">
+        <v>0.00053</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B266">
+        <v>12.43372116446551</v>
+      </c>
+      <c r="C266">
+        <v>0.00057</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B267">
+        <v>12.42941235643634</v>
+      </c>
+      <c r="C267">
+        <v>0.00057</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B268">
+        <v>12.42898864381573</v>
+      </c>
+      <c r="C268">
+        <v>0.00057</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B269">
+        <v>12.39054169949521</v>
+      </c>
+      <c r="C269">
+        <v>0.00058</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B270">
+        <v>12.38871679000737</v>
+      </c>
+      <c r="C270">
+        <v>0.00058</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B271">
+        <v>12.13306707758431</v>
+      </c>
+      <c r="C271">
+        <v>0.00066</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B272">
+        <v>11.83124273534168</v>
+      </c>
+      <c r="C272">
+        <v>0.00077</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B273">
+        <v>11.60223210602287</v>
+      </c>
+      <c r="C273">
+        <v>0.00086</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B274">
+        <v>11.59477672268259</v>
+      </c>
+      <c r="C274">
+        <v>0.00086</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B275">
+        <v>11.56276998025303</v>
+      </c>
+      <c r="C275">
+        <v>0.00088</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B276">
+        <v>11.4043381396741</v>
+      </c>
+      <c r="C276">
+        <v>0.00095</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B277">
+        <v>11.29364489586397</v>
+      </c>
+      <c r="C277">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B278">
+        <v>10.40492939418294</v>
+      </c>
+      <c r="C278">
+        <v>0.00156</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B279">
+        <v>10.32236064162328</v>
+      </c>
+      <c r="C279">
+        <v>0.00163</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B280">
+        <v>10.21357334170648</v>
+      </c>
+      <c r="C280">
+        <v>0.00172</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B281">
+        <v>9.495987304635738</v>
+      </c>
+      <c r="C281">
+        <v>0.00248</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B282">
+        <v>9.330115244152564</v>
+      </c>
+      <c r="C282">
+        <v>0.0027</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B283">
+        <v>9.312337434599227</v>
+      </c>
+      <c r="C283">
+        <v>0.00272</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B284">
+        <v>9.245148675335516</v>
+      </c>
+      <c r="C284">
+        <v>0.00282</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B285">
+        <v>9.231513271003397</v>
+      </c>
+      <c r="C285">
+        <v>0.00284</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B286">
+        <v>9.229302180804998</v>
+      </c>
+      <c r="C286">
+        <v>0.00284</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B287">
+        <v>8.814125818339711</v>
+      </c>
+      <c r="C287">
+        <v>0.00351</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B288">
+        <v>8.602384018813895</v>
+      </c>
+      <c r="C288">
+        <v>0.00392</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B289">
+        <v>8.188285002460892</v>
+      </c>
+      <c r="C289">
+        <v>0.00486</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B290">
+        <v>8.027462604294122</v>
+      </c>
+      <c r="C290">
+        <v>0.00528</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B291">
+        <v>7.997421303727911</v>
+      </c>
+      <c r="C291">
+        <v>0.00537</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B292">
+        <v>7.996686928925075</v>
+      </c>
+      <c r="C292">
+        <v>0.00537</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B293">
+        <v>7.263938365227732</v>
+      </c>
+      <c r="C293">
+        <v>0.007889999999999999</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B294">
+        <v>7.059113715098158</v>
+      </c>
+      <c r="C294">
+        <v>0.008800000000000001</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B295">
+        <v>6.982193891337951</v>
+      </c>
+      <c r="C295">
+        <v>0.00916</v>
       </c>
     </row>
   </sheetData>
